--- a/The Eternals/FrameDirectX12/Bin/Resource/ResourceStage/DynamicMesh/NPC/Cat/AnimationInfo.xlsx
+++ b/The Eternals/FrameDirectX12/Bin/Resource/ResourceStage/DynamicMesh/NPC/Cat/AnimationInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\01.KPUFinalProject\The Eternals\FrameDirectX12\Bin\Resource\ResourceStage\DynamicMesh\NPC\Cat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8B2CF8-BB1F-48D7-AF79-F78FC8A00DF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493037CB-AC66-4E2E-9D6C-8004B385EF37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61396BBF-947E-42B3-B422-339E63356C45}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19050" windowHeight="10400" xr2:uid="{61396BBF-947E-42B3-B422-339E63356C45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Animation Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>Idle01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Idle02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3945F1B-935D-41F2-9305-F8AE345AF27E}">
-  <dimension ref="C3:F7"/>
+  <dimension ref="C3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -494,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
@@ -508,13 +504,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F5" s="1">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
@@ -522,27 +518,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="F6" s="1">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>348</v>
-      </c>
-      <c r="F7" s="1">
-        <v>378</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/The Eternals/FrameDirectX12/Bin/Resource/ResourceStage/DynamicMesh/NPC/Cat/AnimationInfo.xlsx
+++ b/The Eternals/FrameDirectX12/Bin/Resource/ResourceStage/DynamicMesh/NPC/Cat/AnimationInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\01.KPUFinalProject\The Eternals\FrameDirectX12\Bin\Resource\ResourceStage\DynamicMesh\NPC\Cat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493037CB-AC66-4E2E-9D6C-8004B385EF37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8B2CF8-BB1F-48D7-AF79-F78FC8A00DF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19050" windowHeight="10400" xr2:uid="{61396BBF-947E-42B3-B422-339E63356C45}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61396BBF-947E-42B3-B422-339E63356C45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Animation Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>Idle01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -460,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3945F1B-935D-41F2-9305-F8AE345AF27E}">
-  <dimension ref="C3:F6"/>
+  <dimension ref="C3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -490,13 +494,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
@@ -504,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F5" s="1">
-        <v>249</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
@@ -518,13 +522,27 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="F6" s="1">
-        <v>280</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>348</v>
+      </c>
+      <c r="F7" s="1">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
